--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value310.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value310.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9491886211597196</v>
+        <v>1.12404727935791</v>
       </c>
       <c r="B1">
-        <v>1.088433673264554</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>1.362811628664415</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.743302581830994</v>
+        <v>1.735024333000183</v>
       </c>
       <c r="E1">
-        <v>4.919263313672337</v>
+        <v>1.126239418983459</v>
       </c>
     </row>
   </sheetData>
